--- a/biology/Botanique/Bowenia_spectabilis/Bowenia_spectabilis.xlsx
+++ b/biology/Botanique/Bowenia_spectabilis/Bowenia_spectabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bowenia spectabilis est une espèce de cycas de la famille des Zamiaceae. Il est endémique au Queensland, Australie (Cook, North Kennedy). C'est une plante vivace, sous-arbustive qui pousse principalement dans le biome tropical humide.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bowenia spectabilis se trouve dans le nord-est du Queensland, depuis la chaîne McIlwraith sur la péninsule du Cap York au sud jusqu'à  Tully. Son habitat naturel est la forêt de plaines humides subtropicales ou tropicales, poussant à proximité des ruisseaux et sur les pentes abritées des forêts de sclérophylle humides des basses terres, mais également à une altitude allant jusqu'à 700 mètres dans le région des Tablelands[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bowenia spectabilis se trouve dans le nord-est du Queensland, depuis la chaîne McIlwraith sur la péninsule du Cap York au sud jusqu'à  Tully. Son habitat naturel est la forêt de plaines humides subtropicales ou tropicales, poussant à proximité des ruisseaux et sur les pentes abritées des forêts de sclérophylle humides des basses terres, mais également à une altitude allant jusqu'à 700 mètres dans le région des Tablelands.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le livre de 1889 « Les plantes indigènes utiles d'Australie » rapporte que le rhizome semblable à l'igname est utilisé pour l'alimentation par les Australiens autochtones[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le livre de 1889 « Les plantes indigènes utiles d'Australie » rapporte que le rhizome semblable à l'igname est utilisé pour l'alimentation par les Australiens autochtones.
 </t>
         </is>
       </c>
